--- a/trunk/1. Project management/6. Risk management plan/Risk List/RiskEstimated.xlsx
+++ b/trunk/1. Project management/6. Risk management plan/Risk List/RiskEstimated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xyu\Desktop\AP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\6. Risk management plan\Risk List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Step 1 : Risk Identification</t>
   </si>
@@ -115,13 +115,43 @@
   </si>
   <si>
     <t>Người kiểm thử và người phát triển mâu thuẫn trong quá trình kiểm thử</t>
+  </si>
+  <si>
+    <t>pass k du testcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lots defect in architecture phase </t>
+  </si>
+  <si>
+    <t>Member lack of experience use to ACDM and design architecture</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Progress of architecture phase is slow</t>
+  </si>
+  <si>
+    <t>Not clearly  understand to using ACDM, a lots defect is defined</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Lack of meeting place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no room to meeting </t>
+  </si>
+  <si>
+    <t>lack of experience to manage project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +191,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,11 +298,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,13 +395,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,11 +748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="2" customWidth="1"/>
@@ -647,7 +773,7 @@
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10" t="s">
@@ -674,7 +800,7 @@
       <c r="P1" s="14"/>
       <c r="Q1" s="15"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,23 +849,23 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="17" customFormat="1">
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="19"/>
@@ -754,23 +880,23 @@
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="17" customFormat="1" ht="31.5">
       <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="19"/>
@@ -785,23 +911,23 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="17" customFormat="1" ht="31.5">
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="19"/>
@@ -816,15 +942,17 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="17" customFormat="1">
       <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="19"/>
+      <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
@@ -837,15 +965,21 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="17" customFormat="1" ht="45">
       <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -858,15 +992,21 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="17" customFormat="1" ht="30">
       <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -879,15 +1019,17 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1">
       <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -900,15 +1042,19 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="17" customFormat="1">
       <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -921,11 +1067,13 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="17" customFormat="1">
       <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="E11" s="20"/>
@@ -942,7 +1090,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="12" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="17" customFormat="1">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -963,7 +1111,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="17" customFormat="1">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -984,7 +1132,7 @@
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
     </row>
-    <row r="14" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="17" customFormat="1">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -1005,337 +1153,337 @@
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="22"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="6"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="23"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="24"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="6"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="23"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="23"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="24"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="22"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="23"/>
+      <c r="E21" s="22"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="24"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="23"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="23"/>
+      <c r="E23" s="22"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="24"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="24"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="24"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="22"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="23"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="24"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="22"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="22"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="24"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="23"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="24"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="23"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="24"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="22"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="23"/>
+      <c r="E30" s="22"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="24"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="24"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1345,37 +1493,37 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="24"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="7"/>
     </row>
   </sheetData>
@@ -1389,13 +1537,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K32">
       <formula1>"Avoid,Transfer,Mitigate,Accept"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18 F20:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F32 F3:F8 F10:F18">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N32">
       <formula1>"Identified,Analysis complete,Planning complete,Triggered,Resolved,Retire"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 F9">
       <formula1>"Scope/Requirement,Technology,Scope,Time,Equipment,Complexity,Performance,Subcontractors,Resource,Funding,Prioritization,Estimating,Planning,Controlling,Comunication,Skills,Training"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1410,7 +1558,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1422,7 +1570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
